--- a/public/pendaftar/validasi_pendaftar.xlsx
+++ b/public/pendaftar/validasi_pendaftar.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\c14230127\ukm catur\frontend\public\pendaftar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F42555A-EE0D-4363-887E-DB202A4467E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8A44D6-0E5A-4E74-ACC9-E888BF52BC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{D581129E-6C4D-42A2-BFD8-A31A2E05149E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{D581129E-6C4D-42A2-BFD8-A31A2E05149E}"/>
   </bookViews>
   <sheets>
     <sheet name="10-Sep-2025" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'10-Sep-2025'!$A$1:$H$81</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'10-Sep-2025'!$A$1:$H$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="412">
   <si>
     <t>Date</t>
   </si>
@@ -1276,6 +1276,12 @@
   </si>
   <si>
     <t>12-Sep-2025 10:47:48</t>
+  </si>
+  <si>
+    <t>c11223344</t>
+  </si>
+  <si>
+    <t>User Test</t>
   </si>
 </sst>
 </file>
@@ -1375,8 +1381,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{557E8498-2E2E-4776-BC08-DD9F663F637E}" name="_10_Sep_2025" displayName="_10_Sep_2025" ref="A1:H81" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H81" xr:uid="{557E8498-2E2E-4776-BC08-DD9F663F637E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{557E8498-2E2E-4776-BC08-DD9F663F637E}" name="_10_Sep_2025" displayName="_10_Sep_2025" ref="A1:H82" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H82" xr:uid="{557E8498-2E2E-4776-BC08-DD9F663F637E}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A8FCDA21-1ADC-4EC7-829D-AFFF9E1A6563}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{FD31660E-7494-4C61-BA52-B76763A20F32}" uniqueName="2" name="NRP" queryTableFieldId="2" dataDxfId="6"/>
@@ -1688,9 +1694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676522F8-0BFB-4D52-8167-6A8FA29CAF48}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3809,6 +3817,22 @@
       <c r="H81" s="2" t="s">
         <v>409</v>
       </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45912</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
